--- a/trunk/sge/Gerenciamento/Comunicacao/Agenda de Contatos.xlsx
+++ b/trunk/sge/Gerenciamento/Comunicacao/Agenda de Contatos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NOME</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>9344-6696</t>
+  </si>
+  <si>
+    <t>Escola Nc 12 - Maria da Fé</t>
+  </si>
+  <si>
+    <t>9500-9337  /  9281-2430  /  3645-4489</t>
+  </si>
+  <si>
+    <t>Dilciane</t>
   </si>
 </sst>
 </file>
@@ -291,9 +300,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -316,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,188 +630,194 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
